--- a/SWP_RubnerSabo/poker.xlsx
+++ b/SWP_RubnerSabo/poker.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'Royal Flush': 0, 'Straight Flush': 2, 'Four of a Kind': 19, 'Full House': 152, 'Flush': 202, 'Straight': 362, 'Three of a Kind': 2095, 'Two Pair': 4652, 'One Pair': 42248, 'High Card': 50268}</t>
+          <t>{'Royal Flush': 0, 'Straight Flush': 0, 'Four of a Kind': 0, 'Full House': 1, 'Flush': 4, 'Straight': 1, 'Three of a Kind': 24, 'Two Pair': 47, 'One Pair': 447, 'High Card': 476}</t>
         </is>
       </c>
     </row>
